--- a/database.xlsx
+++ b/database.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm\ksf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D40CB-3A38-41E4-9562-1D1631C743AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA149FD-EA83-4D85-A803-58CAFB89F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.1" sheetId="6" r:id="rId1"/>
-    <sheet name="8.2" sheetId="7" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Тарелки">#REF!</definedName>
@@ -41,21 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
   <si>
     <t>Стадии, узлы, аппараты</t>
-  </si>
-  <si>
-    <t>Наименование, рабочие формы материалов</t>
-  </si>
-  <si>
-    <t>Един. измерения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нормы расхода </t>
-  </si>
-  <si>
-    <t>Стадии, узлы,  аппараты</t>
   </si>
   <si>
     <t>Наименование показателей</t>
@@ -190,25 +177,135 @@
   <si>
     <t>не более 3,0</t>
   </si>
+  <si>
+    <t>Отстойник промотора D-104</t>
+  </si>
+  <si>
+    <t>Давление,</t>
+  </si>
+  <si>
+    <t>0,30÷0,50</t>
+  </si>
+  <si>
+    <t>не более 0,60</t>
+  </si>
+  <si>
+    <t>30÷50</t>
+  </si>
+  <si>
+    <t>Емкость хранения нафтенатов D-103</t>
+  </si>
+  <si>
+    <t>атм.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5÷50</t>
+  </si>
+  <si>
+    <t>Емкость концентрирования щелочного промотора D-102</t>
+  </si>
+  <si>
+    <t>5÷90</t>
+  </si>
+  <si>
+    <t>не выше 90</t>
+  </si>
+  <si>
+    <t>Емкость испаритель D-105</t>
+  </si>
+  <si>
+    <t>атм. ÷ 0,1</t>
+  </si>
+  <si>
+    <t>не более 0,1</t>
+  </si>
+  <si>
+    <t>90÷100</t>
+  </si>
+  <si>
+    <t>не выше 105</t>
+  </si>
+  <si>
+    <t>10÷30</t>
+  </si>
+  <si>
+    <t>Отстойник T-101А/В</t>
+  </si>
+  <si>
+    <t>0,7÷0,8</t>
+  </si>
+  <si>
+    <t>не более 0,9</t>
+  </si>
+  <si>
+    <t>35÷45</t>
+  </si>
+  <si>
+    <t>Адсорбер T-102А/В</t>
+  </si>
+  <si>
+    <t>0,6÷0,7</t>
+  </si>
+  <si>
+    <t>не более 0,8</t>
+  </si>
+  <si>
+    <t>Адсорбер T-103А/В</t>
+  </si>
+  <si>
+    <t>0,5÷0,6</t>
+  </si>
+  <si>
+    <t>не более 0,7</t>
+  </si>
+  <si>
+    <t>Подогреватель керосиновой фракции E-101</t>
+  </si>
+  <si>
+    <t>Температура на входе</t>
+  </si>
+  <si>
+    <t>Температура на выходе</t>
+  </si>
+  <si>
+    <t>Холодильник керосиновой фракции E-102</t>
+  </si>
+  <si>
+    <t>30÷40</t>
+  </si>
+  <si>
+    <t>Подогреватель промотора КСП (ж) E-103</t>
+  </si>
+  <si>
+    <t>90÷105</t>
+  </si>
+  <si>
+    <t>Промотор КСП (ж)</t>
+  </si>
+  <si>
+    <t>0,5÷1,5</t>
+  </si>
+  <si>
+    <t>Холодильник промотора КСП (ж) E-104</t>
+  </si>
+  <si>
+    <t>50÷70</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -268,19 +365,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B96D8C-3CB0-4061-AC86-3AFAEEAB46D9}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
@@ -611,303 +702,622 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="1" t="str">
         <f>[1]Sheet1!$A$2 &amp; " " &amp; [1]Sheet1!$B$2</f>
         <v>Реактор демеркапт. керосиновой фракции R-101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="2" t="str">
         <f>[1]Sheet1!$A$3&amp; " " &amp;[1]Sheet1!$B$3</f>
         <v>Отстойник керосиновой фракции D-101</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>60</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903989F0-FC67-4B3C-9B81-D79F2BA1C1EF}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm\ksf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D40CB-3A38-41E4-9562-1D1631C743AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE2217-DB04-44D4-8548-191D999DECC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="8.1" sheetId="6" r:id="rId1"/>
-    <sheet name="8.2" sheetId="7" r:id="rId2"/>
+    <sheet name="1" sheetId="13" r:id="rId1"/>
+    <sheet name="5.1" sheetId="9" r:id="rId2"/>
+    <sheet name="5.2" sheetId="10" r:id="rId3"/>
+    <sheet name="5.3" sheetId="11" r:id="rId4"/>
+    <sheet name="5.4" sheetId="12" r:id="rId5"/>
+    <sheet name="5.5" sheetId="8" r:id="rId6"/>
+    <sheet name="8.1" sheetId="6" r:id="rId7"/>
+    <sheet name="8.2" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Тарелки">#REF!</definedName>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="222">
   <si>
     <t>Стадии, узлы, аппараты</t>
   </si>
@@ -190,12 +196,1066 @@
   <si>
     <t>не более 3,0</t>
   </si>
+  <si>
+    <t>Наименование показателя</t>
+  </si>
+  <si>
+    <t>Нормативный документ на метод испытаний</t>
+  </si>
+  <si>
+    <t>Результат испытаний</t>
+  </si>
+  <si>
+    <r>
+      <t>Плотность при 20°С, кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>ГОСТ 3900</t>
+  </si>
+  <si>
+    <t>786,4</t>
+  </si>
+  <si>
+    <t>Массовая доля меркаптановой серы, %</t>
+  </si>
+  <si>
+    <t>ГОСТ 17323</t>
+  </si>
+  <si>
+    <t>Массовая доля сероводорода, %</t>
+  </si>
+  <si>
+    <t>отсутствие</t>
+  </si>
+  <si>
+    <t>Массовая доля общей серы, %</t>
+  </si>
+  <si>
+    <t>ГОСТ Р 51947</t>
+  </si>
+  <si>
+    <r>
+      <t>Кислотное число общее, мг КОН/в 100 дм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> топлива</t>
+    </r>
+  </si>
+  <si>
+    <t>ГОСТ 5985 и п.4.2 ГОСТ 10227</t>
+  </si>
+  <si>
+    <t>0,19</t>
+  </si>
+  <si>
+    <t>Температура вспышки, определяема в закрытом тигле, ℃</t>
+  </si>
+  <si>
+    <t>ГОСТ 6356</t>
+  </si>
+  <si>
+    <t>ГОСТ Р ЕН ИСО 3405, ГОСТ 2177</t>
+  </si>
+  <si>
+    <t>- температура начала перегонки, °С</t>
+  </si>
+  <si>
+    <t>- 10% отгоняется при температуре, °С</t>
+  </si>
+  <si>
+    <t>- 50% отгоняется при температуре, °С</t>
+  </si>
+  <si>
+    <t>- 90% отгоняется при температуре, °С</t>
+  </si>
+  <si>
+    <t>- 98% отгоняется при температуре, °С</t>
+  </si>
+  <si>
+    <t>- остаток разгонки, %</t>
+  </si>
+  <si>
+    <t>- потери от разгонки, %</t>
+  </si>
+  <si>
+    <t>Значение показателя</t>
+  </si>
+  <si>
+    <t>Давление (изб)</t>
+  </si>
+  <si>
+    <t>Массовый расход</t>
+  </si>
+  <si>
+    <t>т/ч</t>
+  </si>
+  <si>
+    <t>Массовая плотность при 40°С</t>
+  </si>
+  <si>
+    <r>
+      <t>кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>785,0</t>
+  </si>
+  <si>
+    <t>Действительный объемный расход</t>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/ч</t>
+    </r>
+  </si>
+  <si>
+    <t>31,8÷57,3</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Химическая композиция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насыпная плотность </t>
+  </si>
+  <si>
+    <r>
+      <t>95÷122 кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (0,095÷0,122 г/см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Размер гранул (экструдатов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изготовлен в виде блоков 300×300×300 мм </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удельная поверхность </t>
+  </si>
+  <si>
+    <r>
+      <t>0,0013 м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/г</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация </t>
+  </si>
+  <si>
+    <t xml:space="preserve">необходимость отсутствует  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регенерация </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Показатели технологического процесса </t>
+  </si>
+  <si>
+    <t>T=30÷50°С; P= 0,3÷1,2 МПа</t>
+  </si>
+  <si>
+    <t>Длительность работы</t>
+  </si>
+  <si>
+    <t>8 лет без потери активности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Катализатор КСМ-Х изготавливают в соответствии ТУ 2175-001-40655797-2014. Содержащиеся в катализаторе КСМ-Х компоненты: оксид меди (II), оксид никеля (II), оксид марганца (IV), оксид кобальта (III), фталоцианин кобальта, дихлорфталоцианин кобальта нерастворимы в воде. Они жестко закреплены на полимерном носителе – полипропилене. Катализатор КСМ-Х имеет высокую химическую стойкость, низкую водо- и газопроницаемость. Катализатор КСМ-Х устойчив к воздействию концентрированных растворов гидроксида калия и гидроксида натрия. 
+Катализатор КСМ-Х по степени воздействия на организм человека относится к 4-му классу по ГОСТ 12.1.007, нетоксичен в соответствии с МУ 1.1.037-95, что подтверждено Паспортом безопасности химической продукции РПБ № 44178696-20-70519 от 01 октября 2021 г. </t>
+  </si>
+  <si>
+    <t>Значение показателей</t>
+  </si>
+  <si>
+    <t>Внешний вид</t>
+  </si>
+  <si>
+    <t>Вязкая непрозрачная жидкость</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Красновато-коричневый</t>
+  </si>
+  <si>
+    <r>
+      <t>Плотность, г/см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Не менее 1,39</t>
+  </si>
+  <si>
+    <t>Щелочность, г-экв/л</t>
+  </si>
+  <si>
+    <t>Не менее 7,0</t>
+  </si>
+  <si>
+    <t>Концентрация КОН, % масс.</t>
+  </si>
+  <si>
+    <t>Не менее 40,0</t>
+  </si>
+  <si>
+    <t>Температура замерзания</t>
+  </si>
+  <si>
+    <r>
+      <t>Застывает около 0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>С</t>
+    </r>
+  </si>
+  <si>
+    <t>Вязкость, сСт, при 40°С</t>
+  </si>
+  <si>
+    <t>1,37</t>
+  </si>
+  <si>
+    <t>Номера стандартов или ТУ, марка, сорт материалов</t>
+  </si>
+  <si>
+    <t>Условия транспортирования и хранения материалов</t>
+  </si>
+  <si>
+    <t>Катализатор КСМ-Х</t>
+  </si>
+  <si>
+    <t>Насыпная плотность</t>
+  </si>
+  <si>
+    <t>Размер 1 блока насадки КСМ-Х</t>
+  </si>
+  <si>
+    <r>
+      <t>Количество блоков в 1м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Свободный объем блочной насадки</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>штук</t>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>110÷122</t>
+  </si>
+  <si>
+    <t>ТУ 2175-001-40655797-2014</t>
+  </si>
+  <si>
+    <t>Транспортируется любым видом транспорта. Упакован в светонепроницаемые мешки по 2 блока в каждом мешке. Хранится в упаковке изготовителя в крытых складских помещениях, защищенных от действия прямых солнечных лучей, влаги и ветра.</t>
+  </si>
+  <si>
+    <r>
+      <t>Калия гидрат окиси технический</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> твердый</t>
+    </r>
+  </si>
+  <si>
+    <t>Калия гидроокись (марка ч)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ГОСТ 9285-78</t>
+  </si>
+  <si>
+    <t>ГОСТ 24363-80</t>
+  </si>
+  <si>
+    <t>Поставляется в стальных или картонных барабанах с полиэтиленовыми вкладышами, хранится в упакованном виде в складских не отапливаемых помещениях.</t>
+  </si>
+  <si>
+    <t>Шары фарфоровые</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>ТУ 4328-030-07608911-2015</t>
+  </si>
+  <si>
+    <t>ОАО "Речицкий фарфо-ровый завод"  Моск. обл., Раменский р-он, с. Речицы E-mail: rfz@rfz.ru</t>
+  </si>
+  <si>
+    <t>Транспортируется любым видом транспорта в соответствии с правилами перевозки грузов. Упакован в бумажные мешки по 20-25 кг, в мягкие контейнеры МКР-1 весом 900 кг или биг-беги по 400 кг</t>
+  </si>
+  <si>
+    <t>Глина отбеливающая (фуллерова земля)</t>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/г</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>г/см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>100-300</t>
+  </si>
+  <si>
+    <r>
+      <t>Натр едкий технический</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (раствор)</t>
+    </r>
+  </si>
+  <si>
+    <t>СТО</t>
+  </si>
+  <si>
+    <t>Заводская сеть</t>
+  </si>
+  <si>
+    <t>Поставляется от передвижной техники, из тары или по трубопроводу</t>
+  </si>
+  <si>
+    <t>γ-Оксид алюминия</t>
+  </si>
+  <si>
+    <r>
+      <t>Массовая доля алюминия окиси (Al</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">), %, не менее </t>
+    </r>
+  </si>
+  <si>
+    <t>Потери при прокаливании, не более</t>
+  </si>
+  <si>
+    <r>
+      <t>Массовая доля сульфатов (SО</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">), %, не более </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Массовая доля хлоридов (Cl), не более </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Массовая доля железа (Fe), не более </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Массовая доля кремния (Si), не более </t>
+  </si>
+  <si>
+    <r>
+      <t>Массовая доля щелочных и щелочноземельных металлов (в пересчете на Na</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">O), не более </t>
+    </r>
+  </si>
+  <si>
+    <t>ТУ 6-09-426-75</t>
+  </si>
+  <si>
+    <t>От компрессора</t>
+  </si>
+  <si>
+    <t>Поставляется по трубопроводу</t>
+  </si>
+  <si>
+    <t>Инертный газ (азот технический)</t>
+  </si>
+  <si>
+    <t>% об.</t>
+  </si>
+  <si>
+    <t>Вода технологическая</t>
+  </si>
+  <si>
+    <t>мг/л</t>
+  </si>
+  <si>
+    <t>рН</t>
+  </si>
+  <si>
+    <t>мг-экв/л</t>
+  </si>
+  <si>
+    <t>Паровой конденсат, химочищенная или деминерализованная вода</t>
+  </si>
+  <si>
+    <t>Поставляется по водопроводу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование материалов, показателей качества </t>
+  </si>
+  <si>
+    <t>Един. Измерения</t>
+  </si>
+  <si>
+    <t>Значения показателей качества</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возможные поставщики материалов </t>
+  </si>
+  <si>
+    <t>Лицензиар, г. Казань, e-mail: amadullins@gmail.com, тел/факс: (843) 269-25-28</t>
+  </si>
+  <si>
+    <t>кг/м3</t>
+  </si>
+  <si>
+    <t>0.3×0.3×0.3</t>
+  </si>
+  <si>
+    <t>Массовая доля едких щелочей (KOH + NaOH) в пересчете на KOH, не менее</t>
+  </si>
+  <si>
+    <t>Массовая доля гидроокиси калия, не менее</t>
+  </si>
+  <si>
+    <t>«ТК-ТОПАЗ», Московской обл., г. Старая Купавна, e-mail: tk-topaz @mail.ru</t>
+  </si>
+  <si>
+    <t>Массовая доля едкого натра, не менее</t>
+  </si>
+  <si>
+    <t>ООО «ГЛОУБКОР» 305001, г. Курск, ул.,  Кр. Армии, 29-а, Email: buddonyj@globecore.ru</t>
+  </si>
+  <si>
+    <t>ООО «ХлоренХима», Московская обл., г. Щелково, ул. Заводская, д.2, корп.112, Территория Щелковского химического завода</t>
+  </si>
+  <si>
+    <t>ГОСТ 17433-80, Класс 0 и 1</t>
+  </si>
+  <si>
+    <t>Давление не менее</t>
+  </si>
+  <si>
+    <t>Воздух технологический (сжатый воздух)</t>
+  </si>
+  <si>
+    <t>ГОСТ 9293-74, ИСО 2435-73, с изм. 1, 2, 3</t>
+  </si>
+  <si>
+    <t>номинальный диаметр шара</t>
+  </si>
+  <si>
+    <r>
+      <t>доля N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, не менее</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>доля О</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, не более </t>
+    </r>
+  </si>
+  <si>
+    <t>Температура, не более</t>
+  </si>
+  <si>
+    <t>Взвешенные вещества, не более</t>
+  </si>
+  <si>
+    <t>Хлориды, не более</t>
+  </si>
+  <si>
+    <t>Водородный показатель, не менее</t>
+  </si>
+  <si>
+    <t>Жесткость общая, не более</t>
+  </si>
+  <si>
+    <t>Режим работы установки предусматривается в 2 режимах:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим 1: непрерывно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Массовая доля меркаптановой серы, % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Массовая доля серы, % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доступное количество керосиновой фракции: </t>
+  </si>
+  <si>
+    <t>тонн/час.</t>
+  </si>
+  <si>
+    <t>часов в год</t>
+  </si>
+  <si>
+    <t>Фракционный состав:</t>
+  </si>
+  <si>
+    <t>- остаток от разгонки, %</t>
+  </si>
+  <si>
+    <t>не нормируется</t>
+  </si>
+  <si>
+    <t>Температура вспышки, определяемая в закрытом тигле, °С</t>
+  </si>
+  <si>
+    <t>не нормируется, определение обязательно</t>
+  </si>
+  <si>
+    <t>Таблица 1 – Качественные показатели прямогонной керосиновой фракции 
+АО «ННК-Хабаровский НПЗ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим 2: периодический </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 2 – Параметры потока прямогонной керосиновой фракции на границе установки </t>
+  </si>
+  <si>
+    <t>ЭЛОУ-АТ</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>МПа (изб.)</t>
+  </si>
+  <si>
+    <t>Давление, МПа (изб.)</t>
+  </si>
+  <si>
+    <t>Температура, ºС</t>
+  </si>
+  <si>
+    <t>Рабочие условия</t>
+  </si>
+  <si>
+    <t>Расчетные</t>
+  </si>
+  <si>
+    <t>Рабочие</t>
+  </si>
+  <si>
+    <t>Таблица 5 - Пар среднего давления :</t>
+  </si>
+  <si>
+    <t>Нормальные</t>
+  </si>
+  <si>
+    <t>Минимальные</t>
+  </si>
+  <si>
+    <t>Максимальные</t>
+  </si>
+  <si>
+    <t>Водородный показатель pH</t>
+  </si>
+  <si>
+    <t>Жесткость, мг.экв/л</t>
+  </si>
+  <si>
+    <r>
+      <t>Взвешенные вещества, мг/дм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Солесодержание, мг/дм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>* позднее</t>
+  </si>
+  <si>
+    <t>Таблица 7 - Оборотная вода прямая</t>
+  </si>
+  <si>
+    <t>Таблица 8 - Оборотная вода обратная</t>
+  </si>
+  <si>
+    <t>Расчётное</t>
+  </si>
+  <si>
+    <t>Рабочее</t>
+  </si>
+  <si>
+    <t>окр. среды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точка росы, ºС </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 13 - Сжатый воздух (КИП, технический) </t>
+  </si>
+  <si>
+    <t>Точка росы ºС</t>
+  </si>
+  <si>
+    <r>
+      <t>Макс. содержание О</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>об.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">не более </t>
+  </si>
+  <si>
+    <t xml:space="preserve">минус </t>
+  </si>
+  <si>
+    <t>Таблица 12 - Параметры инертного газа высокого давления (азот)</t>
+  </si>
+  <si>
+    <t>Таблица 11 - Параметры инертного газа низкого давления (азот)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +1292,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +1355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,15 +1378,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -281,6 +1477,116 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,11 +1900,2846 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0CB86-5DBB-4665-A495-9FDFC09B86DF}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E123"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" style="25" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30">
+        <v>8760</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30">
+        <v>80</v>
+      </c>
+      <c r="D3" s="30">
+        <v>100</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="32">
+        <v>135</v>
+      </c>
+      <c r="C9" s="32">
+        <v>155</v>
+      </c>
+      <c r="D9" s="33">
+        <v>142</v>
+      </c>
+      <c r="E9" s="33">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32">
+        <v>175</v>
+      </c>
+      <c r="D10" s="33">
+        <v>157</v>
+      </c>
+      <c r="E10" s="33">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32">
+        <v>225</v>
+      </c>
+      <c r="D11" s="33">
+        <v>181.5</v>
+      </c>
+      <c r="E11" s="33">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29">
+        <v>270</v>
+      </c>
+      <c r="D12" s="30">
+        <v>213</v>
+      </c>
+      <c r="E12" s="30">
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29">
+        <v>280</v>
+      </c>
+      <c r="D13" s="30">
+        <v>228</v>
+      </c>
+      <c r="E13" s="30">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34">
+        <v>28</v>
+      </c>
+      <c r="D16" s="30">
+        <v>41</v>
+      </c>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="33">
+        <v>3.1660000000000001E-2</v>
+      </c>
+      <c r="E17" s="33">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0.114</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="D20" s="30">
+        <v>25</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="33">
+        <v>45</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="42">
+        <f>8/10</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="42">
+        <f>7/10</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A56" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="42">
+        <v>1.6</v>
+      </c>
+      <c r="C57" s="42">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="42">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C58" s="42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A61" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="42">
+        <v>1</v>
+      </c>
+      <c r="C62" s="42">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="42">
+        <v>0.67</v>
+      </c>
+      <c r="C63" s="42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A66" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="C67" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="C68" s="42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="C69" s="42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A76" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="C77" s="42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="C78" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="C79" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A106" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="42">
+        <v>1.6</v>
+      </c>
+      <c r="C107" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="27">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="27">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A113" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" s="42">
+        <v>6.3</v>
+      </c>
+      <c r="C114" s="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="42">
+        <v>3.7</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="27">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" s="27">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A120" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" s="44"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B121" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="C121" s="42">
+        <v>-43</v>
+      </c>
+      <c r="D121" s="45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="C122" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="27">
+        <v>-40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C120:D120"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F5E743-59AC-443A-AD7C-BAA5D8A12E43}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>'1'!D17&amp;"÷"&amp;'1'!E17</f>
+        <v>0.03166÷0.0325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>'1'!D18&amp;"÷"&amp;'1'!E18</f>
+        <v>0.114÷0.116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>'1'!D9&amp;"÷"&amp;'1'!E9</f>
+        <v>142÷143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="8" t="str">
+        <f>'1'!D10&amp;"÷"&amp;'1'!E10</f>
+        <v>157÷158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="8" t="str">
+        <f>'1'!D11&amp;"÷"&amp;'1'!E11</f>
+        <v>181.5÷182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="8" t="str">
+        <f>'1'!D12&amp;"÷"&amp;'1'!E12</f>
+        <v>213÷214.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="8" t="str">
+        <f>'1'!D13&amp;"÷"&amp;'1'!E13</f>
+        <v>228÷231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="8" t="str">
+        <f>'1'!D14&amp;"÷"&amp;'1'!E14</f>
+        <v>0.5÷1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="8">
+        <f>'1'!E15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B9:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048BE48F-CE60-4C4D-8DF8-D3D2206AD93A}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>'1'!C29&amp;"÷"&amp;'1'!C26</f>
+        <v>27÷40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>'1'!C30&amp;"÷"&amp;'1'!C27</f>
+        <v>0.7÷0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>'1'!D20&amp;"÷"&amp;'1'!D21</f>
+        <v>25÷45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415F2364-9B0A-454F-B106-11FF782D6971}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB42A5F-B761-4225-9F92-D5BB3FE9B026}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D41F56B-8779-45AA-A2B9-899A4E4B2E86}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:F189"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="56" style="13" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="11">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="11">
+        <v>95</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="11">
+        <v>84.5</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="11">
+        <v>46</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="11">
+        <v>95</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="11">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="11">
+        <v>99.95</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="11">
+        <v>40</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="11">
+        <v>15</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="11">
+        <v>50</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="11">
+        <v>7</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="11">
+        <v>4</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B96D8C-3CB0-4061-AC86-3AFAEEAB46D9}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +4764,7 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -641,7 +4782,7 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -656,7 +4797,7 @@
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -671,7 +4812,7 @@
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -686,43 +4827,43 @@
       <c r="D5" s="2">
         <v>16.7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -731,12 +4872,12 @@
       <c r="D8" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <f>[1]Sheet1!$A$3&amp; " " &amp;[1]Sheet1!$B$3</f>
         <v>Отстойник керосиновой фракции D-101</v>
       </c>
@@ -746,40 +4887,40 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>2.5</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -793,12 +4934,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903989F0-FC67-4B3C-9B81-D79F2BA1C1EF}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm\ksf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06311BE-288A-4387-864C-2A030E0A29AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF13863E-61BA-4BCC-A3A4-CEB0550B83F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="324">
   <si>
     <t>Стадии, узлы, аппараты</t>
   </si>
@@ -339,9 +339,6 @@
     </r>
   </si>
   <si>
-    <t>785,0</t>
-  </si>
-  <si>
     <t>Действительный объемный расход</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     </r>
   </si>
   <si>
-    <t>31,8÷57,3</t>
-  </si>
-  <si>
     <t>Показатель</t>
   </si>
   <si>
@@ -1275,9 +1269,6 @@
     <t>на 1 т. сырья</t>
   </si>
   <si>
-    <t>0,02 кг</t>
-  </si>
-  <si>
     <t xml:space="preserve">Щелочные стоки, сбрасываемые на очистные сооружения </t>
   </si>
   <si>
@@ -1287,8 +1278,59 @@
     <t>Отработанный воздух</t>
   </si>
   <si>
-    <r>
-      <t>до 30,0* нм</t>
+    <t>Значения показателей качества побочного продукта, обеспечиваемые процессом</t>
+  </si>
+  <si>
+    <t>Области применения и возможные потребители побочного продукта</t>
+  </si>
+  <si>
+    <t>при 60°С</t>
+  </si>
+  <si>
+    <t>при 40°С</t>
+  </si>
+  <si>
+    <t>Процессы нефтедобычи, нефтепереработки, нефтехимии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУ 0258-015-00151638-ОП-99 Удаляется периодически </t>
+  </si>
+  <si>
+    <t>Наименование отходов</t>
+  </si>
+  <si>
+    <t>Отработанная глина</t>
+  </si>
+  <si>
+    <t>Отработанную глину выгружают и вывозят любым видом грузового автотранспорта специализированными организациями на утилизацию.</t>
+  </si>
+  <si>
+    <t>γ-оксид алюминия</t>
+  </si>
+  <si>
+    <t>Отработанный γ-оксид алюминия выгружают и вывозят любым видом грузового автотранспорта специализированными организациями на утилизацию.</t>
+  </si>
+  <si>
+    <t>Отработанный катализатор КСМ-Х</t>
+  </si>
+  <si>
+    <t>Отработанный катализатор КСМ-Х промывают горячей водой, выгружают и вывозят специализированными организациями на утилизацию.</t>
+  </si>
+  <si>
+    <t>Отработанные фарфоровые шары</t>
+  </si>
+  <si>
+    <t>Отработанные фарфоровые шары промывают водой, выгружают и вывозят на полигон для захоронения любым видом грузового автотранспорта.</t>
+  </si>
+  <si>
+    <t>Условия сбора, хранения, транспортирования, складирования и захоронения отходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество, т/год </t>
+  </si>
+  <si>
+    <r>
+      <t>плотность, кг/см</t>
     </r>
     <r>
       <rPr>
@@ -1301,80 +1343,19 @@
       </rPr>
       <t>3</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>/ч, направляется в печь дожига</t>
-    </r>
-  </si>
-  <si>
-    <t>Значения показателей качества побочного продукта, обеспечиваемые процессом</t>
-  </si>
-  <si>
-    <t>Области применения и возможные потребители побочного продукта</t>
-  </si>
-  <si>
-    <t>~2,0</t>
-  </si>
-  <si>
-    <t>1,15 - 1,30</t>
-  </si>
-  <si>
-    <t>1,02</t>
-  </si>
-  <si>
-    <t>при 60°С</t>
-  </si>
-  <si>
-    <t>при 40°С</t>
-  </si>
-  <si>
-    <t>Процессы нефтедобычи, нефтепереработки, нефтехимии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУ 0258-015-00151638-ОП-99 Удаляется периодически </t>
-  </si>
-  <si>
-    <t>Наименование отходов</t>
-  </si>
-  <si>
-    <t>Отработанная глина</t>
-  </si>
-  <si>
-    <t>Отработанную глину выгружают и вывозят любым видом грузового автотранспорта специализированными организациями на утилизацию.</t>
-  </si>
-  <si>
-    <t>γ-оксид алюминия</t>
-  </si>
-  <si>
-    <t>Отработанный γ-оксид алюминия выгружают и вывозят любым видом грузового автотранспорта специализированными организациями на утилизацию.</t>
-  </si>
-  <si>
-    <t>Отработанный катализатор КСМ-Х</t>
-  </si>
-  <si>
-    <t>Отработанный катализатор КСМ-Х промывают горячей водой, выгружают и вывозят специализированными организациями на утилизацию.</t>
-  </si>
-  <si>
-    <t>Отработанные фарфоровые шары</t>
-  </si>
-  <si>
-    <t>Отработанные фарфоровые шары промывают водой, выгружают и вывозят на полигон для захоронения любым видом грузового автотранспорта.</t>
-  </si>
-  <si>
-    <t>Условия сбора, хранения, транспортирования, складирования и захоронения отходов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">количество, т/год </t>
-  </si>
-  <si>
-    <r>
-      <t>плотность, кг/см</t>
+  </si>
+  <si>
+    <t>вязкость, сСт:</t>
+  </si>
+  <si>
+    <t>Наименование показателей качества побочного продукта</t>
+  </si>
+  <si>
+    <t>0.02 кг</t>
+  </si>
+  <si>
+    <r>
+      <t>до 30.0* нм</t>
     </r>
     <r>
       <rPr>
@@ -1387,19 +1368,351 @@
       </rPr>
       <t>3</t>
     </r>
-  </si>
-  <si>
-    <t>вязкость, сСт:</t>
-  </si>
-  <si>
-    <t>Наименование показателей качества побочного продукта</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/ч, направляется в печь дожига</t>
+    </r>
+  </si>
+  <si>
+    <t>1.15 - 1.30</t>
+  </si>
+  <si>
+    <t>~2.0</t>
+  </si>
+  <si>
+    <t>кг/ч</t>
+  </si>
+  <si>
+    <t>Норма</t>
+  </si>
+  <si>
+    <t>б) 10% отгоняется при температуре, °С, не выше</t>
+  </si>
+  <si>
+    <t>в) 50% отгоняется при температуре, °С, не выше</t>
+  </si>
+  <si>
+    <t>г) 90% отгоняется при температуре, °С, не выше</t>
+  </si>
+  <si>
+    <t>д) 98% отгоняется при температуре, °С, не выше</t>
+  </si>
+  <si>
+    <t>е) остаток от разгонки, %, не более</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>ж) потери от разгонки, %, не более</t>
+  </si>
+  <si>
+    <t>ГОСТ 33</t>
+  </si>
+  <si>
+    <t>20 °С, не менее</t>
+  </si>
+  <si>
+    <t>1,30 (1,30)</t>
+  </si>
+  <si>
+    <t>Низшая теплота сгорания, кДж/кг, не менее</t>
+  </si>
+  <si>
+    <t>ГОСТ 11065 и п.4.8 ГОСТ 10227</t>
+  </si>
+  <si>
+    <t>Высота некоптящего пламени, мм, не менее</t>
+  </si>
+  <si>
+    <t>ГОСТ 4338</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>Йодное число, г йода на 100 г топлива, не более</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>ГОСТ 2070</t>
+  </si>
+  <si>
+    <t>Температура вспышки, определяемая в закрытом тигле, °С, не ниже</t>
+  </si>
+  <si>
+    <t>Температура начала кристаллизации, °С, не выше</t>
+  </si>
+  <si>
+    <t>ГОСТ 5066, метод Б</t>
+  </si>
+  <si>
+    <t>Термоокислительная стабильность в статических условиях при 150 °С, не более:</t>
+  </si>
+  <si>
+    <t>ГОСТ 11802</t>
+  </si>
+  <si>
+    <t>Объемная (массовая) доля ароматических углеводородов, %, не более</t>
+  </si>
+  <si>
+    <t>20(22)</t>
+  </si>
+  <si>
+    <t>ГОСТ Р 52063, ГОСТ Р ЕН 12916, ГОСТ 6994</t>
+  </si>
+  <si>
+    <t>ГОСТ 1567,</t>
+  </si>
+  <si>
+    <t>ГОСТ 8489</t>
+  </si>
+  <si>
+    <t>Массовая доля общей серы, %, не более</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>ГОСТ Р 51947, ГОСТ Р 51859, ГОСТ 19121</t>
+  </si>
+  <si>
+    <t>Массовая доля меркаптановой серы, %, не более</t>
+  </si>
+  <si>
+    <t>0,003</t>
+  </si>
+  <si>
+    <t>ГОСТ Р 52030, ГОСТ 17323</t>
+  </si>
+  <si>
+    <t>Массовая доля сероводорода</t>
+  </si>
+  <si>
+    <t>Отсутствие</t>
+  </si>
+  <si>
+    <t>Испытание на медной пластинке при 100 °С в течение 3ч</t>
+  </si>
+  <si>
+    <t>Выдерживает</t>
+  </si>
+  <si>
+    <t>ГОСТ 6321 и п.4.4 ГОСТ 10227</t>
+  </si>
+  <si>
+    <t>Зольность, %, не более</t>
+  </si>
+  <si>
+    <t>ГОСТ 1461</t>
+  </si>
+  <si>
+    <t>Содержание водорастворимых кислот и щелочей</t>
+  </si>
+  <si>
+    <t>ГОСТ 6307 и п.4.9 ГОСТ 10227</t>
+  </si>
+  <si>
+    <t>Содержание мыл нафтеновых кислот</t>
+  </si>
+  <si>
+    <t>ГОСТ 21103</t>
+  </si>
+  <si>
+    <t>Содержание механических примесей и воды</t>
+  </si>
+  <si>
+    <t>п.4.5 ГОСТ 10227</t>
+  </si>
+  <si>
+    <t>Взаимодействие с водой, балл, не более:</t>
+  </si>
+  <si>
+    <t>ГОСТ 27154</t>
+  </si>
+  <si>
+    <t>а) состояние поверхности раздела</t>
+  </si>
+  <si>
+    <t>б) состояние разделенных фаз</t>
+  </si>
+  <si>
+    <t>Удельная электрическая проводимость, пСм/м:</t>
+  </si>
+  <si>
+    <t>ГОСТ 25950</t>
+  </si>
+  <si>
+    <t>без антистатической присадки при температуре 20 °С, не более</t>
+  </si>
+  <si>
+    <t>Термоокислительная стабильность при контрольной температуре не ниже 260 °С:</t>
+  </si>
+  <si>
+    <t>ГОСТ Р 52954</t>
+  </si>
+  <si>
+    <t>а) перепад давления на фильтре, мм рт.ст., не более</t>
+  </si>
+  <si>
+    <t>б) цвет отложений на трубке, баллы по цветовой шкале (при отсутствии нехарактерных отложений), не более</t>
+  </si>
+  <si>
+    <r>
+      <t>Кинематическая вязкость, мм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/с (сСт), при температуре:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>минус 20 °С, мм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/с, не более</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Кислотность, мг KОН на 100 см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> топлива, не более</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>концентрация осадка, мг на 100 см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> топлива</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Концентрация фактических смол, мг на 100 см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>топлива, не более</t>
+    </r>
+  </si>
+  <si>
+    <t>Метод испытания</t>
+  </si>
+  <si>
+    <t>Плотность при (20 °С )кг/м , не менее</t>
+  </si>
+  <si>
+    <t>а) температура начала перегонки, °С не выше:</t>
+  </si>
+  <si>
+    <t>м3/ч</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,6 +1797,14 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1609,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1687,9 +2008,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1708,13 +2053,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1723,9 +2062,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,30 +2071,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2042,10 +2380,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.2"/>
@@ -2058,12 +2396,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2071,12 +2409,12 @@
         <v>8760</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19">
@@ -2086,17 +2424,17 @@
         <v>100</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2182,11 +2520,11 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D14" s="19">
         <v>0.5</v>
@@ -2201,7 +2539,7 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19">
@@ -2210,7 +2548,7 @@
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23">
@@ -2221,13 +2559,13 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="22">
         <v>3.1660000000000001E-2</v>
@@ -2236,13 +2574,13 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="19">
         <v>0.114</v>
@@ -2251,48 +2589,76 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B20" s="19"/>
       <c r="D20" s="19">
         <v>25</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="F20" s="14">
+        <f>D20*1000</f>
+        <v>25000</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" s="60">
+        <f>'1'!F20/'5.2'!C5</f>
+        <v>31.847133757961782</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D21" s="22">
         <v>45</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="F21" s="14">
+        <f>D21*1000</f>
+        <v>45000</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="60">
+        <f>F21/'5.2'!C5</f>
+        <v>57.324840764331213</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>10</v>
       </c>
@@ -2303,30 +2669,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27" s="26">
         <f>8/10</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
@@ -2337,12 +2703,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C30" s="26">
         <f>7/10</f>
@@ -2351,23 +2717,23 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" s="26">
         <v>1.6</v>
@@ -2378,7 +2744,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B58" s="26">
         <v>1.1399999999999999</v>
@@ -2389,18 +2755,18 @@
     </row>
     <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B62" s="26">
         <v>1</v>
@@ -2411,7 +2777,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B63" s="26">
         <v>0.67</v>
@@ -2422,23 +2788,23 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B67" s="26">
         <v>0.3</v>
@@ -2449,7 +2815,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B68" s="26">
         <v>0.03</v>
@@ -2460,7 +2826,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B69" s="26">
         <v>0.6</v>
@@ -2471,55 +2837,55 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B77" s="26">
         <v>0.08</v>
@@ -2530,7 +2896,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B78" s="26">
         <v>0.05</v>
@@ -2541,7 +2907,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B79" s="26">
         <v>0.1</v>
@@ -2552,23 +2918,23 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A106" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B107" s="26">
         <v>1.6</v>
@@ -2579,21 +2945,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B108" s="26">
         <v>0.8</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C109" s="16">
         <v>-40</v>
@@ -2601,10 +2967,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C110" s="16">
         <v>1.2E-2</v>
@@ -2612,23 +2978,23 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A113" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B114" s="26">
         <v>6.3</v>
@@ -2639,21 +3005,21 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B115" s="26">
         <v>3.7</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C116" s="16">
         <v>-40</v>
@@ -2661,10 +3027,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C117" s="16">
         <v>1.2E-2</v>
@@ -2672,24 +3038,24 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A120" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C120" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D120" s="31"/>
+        <v>193</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B121" s="30">
         <v>0.8</v>
@@ -2703,26 +3069,429 @@
     </row>
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B122" s="30">
         <v>0.6</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D122"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C123" s="16">
         <v>-40</v>
       </c>
     </row>
+    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A125" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B126" s="15">
+        <v>780</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" s="15"/>
+      <c r="C127" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B128" s="57">
+        <v>150</v>
+      </c>
+      <c r="C128" s="58"/>
+    </row>
+    <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" s="57">
+        <v>165</v>
+      </c>
+      <c r="C129" s="58"/>
+    </row>
+    <row r="130" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A130" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="57">
+        <v>195</v>
+      </c>
+      <c r="C130" s="58"/>
+    </row>
+    <row r="131" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="57">
+        <v>230</v>
+      </c>
+      <c r="C131" s="58"/>
+    </row>
+    <row r="132" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="57">
+        <v>250</v>
+      </c>
+      <c r="C132" s="58"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="26"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" s="26"/>
+    </row>
+    <row r="135" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A135" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B135" s="26"/>
+      <c r="C135" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="26"/>
+      <c r="F136" s="59"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B137" s="26">
+        <v>8</v>
+      </c>
+      <c r="C137" s="26"/>
+      <c r="F137" s="59"/>
+    </row>
+    <row r="138" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" s="26">
+        <v>43120</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A139" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" s="26">
+        <v>25</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A141" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A142" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" s="26">
+        <v>28</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A143" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="26">
+        <v>-60</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="26">
+        <v>18</v>
+      </c>
+      <c r="C145" s="26"/>
+    </row>
+    <row r="146" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" s="34">
+        <v>3</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="56"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A156" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="26">
+        <v>1</v>
+      </c>
+      <c r="C158" s="26"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B159" s="26">
+        <v>1</v>
+      </c>
+      <c r="C159" s="26"/>
+    </row>
+    <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A160" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A161" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B161" s="26">
+        <v>10</v>
+      </c>
+      <c r="C161" s="26"/>
+    </row>
+    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A163" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B163" s="26">
+        <v>25</v>
+      </c>
+      <c r="C163" s="26"/>
+    </row>
+    <row r="164" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B164" s="26">
+        <v>3</v>
+      </c>
+      <c r="C164" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
     <mergeCell ref="C120:D120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,8 +3536,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>222</v>
+      <c r="A2" s="52" t="s">
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2784,7 +3553,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2799,7 +3568,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2814,7 +3583,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2829,7 +3598,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2844,7 +3613,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2859,7 +3628,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2874,8 +3643,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>223</v>
+      <c r="A9" s="53" t="s">
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2891,7 +3660,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2906,7 +3675,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3060,7 +3829,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,54 +3840,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C2" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="43"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="C3" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>233</v>
-      </c>
       <c r="B5" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3137,8 +3906,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,74 +3919,75 @@
   <sheetData>
     <row r="1" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>242</v>
+        <v>236</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="39"/>
+        <v>253</v>
+      </c>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="39"/>
+        <v>249</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="39"/>
+        <v>234</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1.37</v>
+      </c>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="40"/>
+      <c r="A7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="C7" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3228,7 +3998,9 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3238,42 +4010,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B5" s="31" t="s">
         <v>245</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3289,7 +4061,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,17 +4151,17 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="7" t="str">
@@ -3401,7 +4173,7 @@
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="7" t="str">
         <f>'1'!D10&amp;"÷"&amp;'1'!E10</f>
         <v>157÷158</v>
@@ -3411,7 +4183,7 @@
       <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="7" t="str">
         <f>'1'!D11&amp;"÷"&amp;'1'!E11</f>
         <v>181.5÷182</v>
@@ -3421,7 +4193,7 @@
       <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="7" t="str">
         <f>'1'!D12&amp;"÷"&amp;'1'!E12</f>
         <v>213÷214.5</v>
@@ -3431,7 +4203,7 @@
       <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="7" t="str">
         <f>'1'!D13&amp;"÷"&amp;'1'!E13</f>
         <v>228÷231</v>
@@ -3441,7 +4213,7 @@
       <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="7" t="str">
         <f>'1'!D14&amp;"÷"&amp;'1'!E14</f>
         <v>0.5÷1</v>
@@ -3451,7 +4223,7 @@
       <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="7">
         <f>'1'!E15</f>
         <v>0.5</v>
@@ -3474,7 +4246,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,19 +4310,20 @@
       <c r="B5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>65</v>
+      <c r="C5" s="9">
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>68</v>
+      <c r="C6" s="61" t="str">
+        <f>TEXT('1'!H20,"0.00")&amp;"÷"&amp;TEXT('1'!H21,"0.00")</f>
+        <v>31.85÷57.32</v>
       </c>
     </row>
   </sheetData>
@@ -3565,8 +4338,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +4350,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>59</v>
@@ -3585,66 +4358,66 @@
     </row>
     <row r="2" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3674,63 +4447,63 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3761,148 +4534,148 @@
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>110</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+        <v>155</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="9">
         <v>37</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="9">
         <v>0.86</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="9">
         <v>95</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="44"/>
+      <c r="A9" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="9">
         <v>84.5</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="11" t="str">
         <f>E8</f>
@@ -3914,81 +4687,81 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="A11" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="11" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="B13" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="C13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="C14" s="9">
         <v>0.65</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="44"/>
+      <c r="A15" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="9">
         <v>46</v>
@@ -3998,127 +4771,127 @@
         <v>СТО</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="9">
         <v>95</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>123</v>
+      <c r="D18" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="9">
         <v>0.5</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="9">
         <v>0.1</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="9">
         <v>0.1</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="9">
         <v>0.1</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="9">
         <v>0.2</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="A25" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>15</v>
@@ -4128,72 +4901,72 @@
         <v>0.6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C28" s="9">
         <v>99.95</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>142</v>
+      <c r="D28" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C29" s="9">
         <v>0.05</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="A30" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
     </row>
     <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>14</v>
@@ -4202,74 +4975,86 @@
         <f>'1'!C79</f>
         <v>40</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>150</v>
+      <c r="D31" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="9">
         <v>15</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="9">
         <v>50</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="9">
         <v>7</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="9">
         <v>4</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="F31:F35"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
@@ -4283,18 +5068,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="F31:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm\ksf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF13863E-61BA-4BCC-A3A4-CEB0550B83F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A4DC44-9B2A-4386-A185-9FD59B526A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="13" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="5.5" sheetId="14" r:id="rId9"/>
     <sheet name="8.1" sheetId="6" r:id="rId10"/>
     <sheet name="8.2" sheetId="7" r:id="rId11"/>
+    <sheet name="10.1" sheetId="18" r:id="rId12"/>
+    <sheet name="11" sheetId="19" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Тарелки">#REF!</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="384">
   <si>
     <t>Стадии, узлы, аппараты</t>
   </si>
@@ -1707,17 +1709,283 @@
   <si>
     <t>м3/ч</t>
   </si>
+  <si>
+    <t>Компоненты</t>
+  </si>
+  <si>
+    <t>Керосиновая фракция на входе в MX-101</t>
+  </si>
+  <si>
+    <t>%мас.</t>
+  </si>
+  <si>
+    <t>Свежий промотор КСП на входе в MX-101</t>
+  </si>
+  <si>
+    <t>Керосиновая фракция на входе в MX-102</t>
+  </si>
+  <si>
+    <t>Воздух на входе в смеситель МХ-102</t>
+  </si>
+  <si>
+    <t>Керосиновая фр.</t>
+  </si>
+  <si>
+    <t>44908,1280</t>
+  </si>
+  <si>
+    <t>99,79584</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>99,80612</t>
+  </si>
+  <si>
+    <t>Меркаптаны</t>
+  </si>
+  <si>
+    <t>83,6367</t>
+  </si>
+  <si>
+    <t>0,185859</t>
+  </si>
+  <si>
+    <t>0,185878</t>
+  </si>
+  <si>
+    <t>Дисульфиды</t>
+  </si>
+  <si>
+    <t>Кислые примеси</t>
+  </si>
+  <si>
+    <t>0,1350</t>
+  </si>
+  <si>
+    <t>0,0003</t>
+  </si>
+  <si>
+    <r>
+      <t>Н</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>О</t>
+    </r>
+  </si>
+  <si>
+    <t>8,1000</t>
+  </si>
+  <si>
+    <t>0,018</t>
+  </si>
+  <si>
+    <t>3,6000</t>
+  </si>
+  <si>
+    <t>0,008001</t>
+  </si>
+  <si>
+    <t>Промотор КСП в том числе:</t>
+  </si>
+  <si>
+    <t>КОН</t>
+  </si>
+  <si>
+    <t>1390,0000</t>
+  </si>
+  <si>
+    <t>40,0</t>
+  </si>
+  <si>
+    <t>2085,0000</t>
+  </si>
+  <si>
+    <t>60,0</t>
+  </si>
+  <si>
+    <t>ROОK</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Воздух в том числе:</t>
+  </si>
+  <si>
+    <t>Азот</t>
+  </si>
+  <si>
+    <t>15,5090</t>
+  </si>
+  <si>
+    <t>76,9754</t>
+  </si>
+  <si>
+    <t>Кислород</t>
+  </si>
+  <si>
+    <t>4,6371</t>
+  </si>
+  <si>
+    <t>23,0150</t>
+  </si>
+  <si>
+    <r>
+      <t>СО</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>0,0010</t>
+  </si>
+  <si>
+    <t>0,0050</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>45000,00</t>
+  </si>
+  <si>
+    <t>3475,00</t>
+  </si>
+  <si>
+    <t>44995,365</t>
+  </si>
+  <si>
+    <t>20,148</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Мол. Масса</t>
+  </si>
+  <si>
+    <t>Поток № 1</t>
+  </si>
+  <si>
+    <t>Поток № 2</t>
+  </si>
+  <si>
+    <t>Поток № 3</t>
+  </si>
+  <si>
+    <t>Поток № 4</t>
+  </si>
+  <si>
+    <t>Поток № 5</t>
+  </si>
+  <si>
+    <t>Поток № 6</t>
+  </si>
+  <si>
+    <t>Поток № 7</t>
+  </si>
+  <si>
+    <t>Поток № 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1930,173 +2198,197 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2607,7 +2899,7 @@
       <c r="G20" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="37">
         <f>'1'!F20/'5.2'!C5</f>
         <v>31.847133757961782</v>
       </c>
@@ -2629,7 +2921,7 @@
       <c r="G21" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="37">
         <f>F21/'5.2'!C5</f>
         <v>57.324840764331213</v>
       </c>
@@ -3048,10 +3340,10 @@
       <c r="B120" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="41"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
@@ -3088,13 +3380,13 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B125" s="55" t="s">
+      <c r="B125" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="C125" s="34" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3122,46 +3414,46 @@
       <c r="A128" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B128" s="57">
+      <c r="B128" s="43">
         <v>150</v>
       </c>
-      <c r="C128" s="58"/>
+      <c r="C128" s="44"/>
     </row>
     <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B129" s="57">
+      <c r="B129" s="43">
         <v>165</v>
       </c>
-      <c r="C129" s="58"/>
+      <c r="C129" s="44"/>
     </row>
     <row r="130" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="57">
+      <c r="B130" s="43">
         <v>195</v>
       </c>
-      <c r="C130" s="58"/>
+      <c r="C130" s="44"/>
     </row>
     <row r="131" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="57">
+      <c r="B131" s="43">
         <v>230</v>
       </c>
-      <c r="C131" s="58"/>
+      <c r="C131" s="44"/>
     </row>
     <row r="132" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="57">
+      <c r="B132" s="43">
         <v>250</v>
       </c>
-      <c r="C132" s="58"/>
+      <c r="C132" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
@@ -3198,7 +3490,7 @@
         <v>266</v>
       </c>
       <c r="C136" s="26"/>
-      <c r="F136" s="59"/>
+      <c r="F136" s="36"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
@@ -3208,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="C137" s="26"/>
-      <c r="F137" s="59"/>
+      <c r="F137" s="36"/>
     </row>
     <row r="138" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
@@ -3306,10 +3598,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="56" t="s">
+      <c r="A147" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="B147" s="34">
+      <c r="B147" s="41">
         <v>3</v>
       </c>
       <c r="C147" s="26" t="s">
@@ -3317,8 +3609,8 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="56"/>
-      <c r="B148" s="34"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="41"/>
       <c r="C148" s="26" t="s">
         <v>284</v>
       </c>
@@ -3485,6 +3777,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C120:D120"/>
     <mergeCell ref="A147:A148"/>
     <mergeCell ref="B147:B148"/>
     <mergeCell ref="B128:C128"/>
@@ -3492,7 +3785,6 @@
     <mergeCell ref="B130:C130"/>
     <mergeCell ref="B131:C131"/>
     <mergeCell ref="B132:C132"/>
-    <mergeCell ref="C120:D120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3536,7 +3828,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3553,7 +3845,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3568,7 +3860,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3583,7 +3875,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3598,7 +3890,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3613,7 +3905,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3628,7 +3920,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3643,7 +3935,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="63" t="s">
         <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3660,7 +3952,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3675,7 +3967,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3821,6 +4113,1282 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5549C081-1A78-4958-979A-3A22A3897C99}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="7">
+        <v>150</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="7">
+        <v>183</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="7">
+        <v>364</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="7">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="7">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="7">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="7">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="7">
+        <v>205</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="7">
+        <v>138</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="7">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="7">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="7">
+        <v>100</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="7">
+        <v>100</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J18" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" s="64"/>
+      <c r="I19" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="J19" s="64"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="7">
+        <v>150</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="7">
+        <v>183</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="7">
+        <v>364</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="7">
+        <v>183</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" s="7">
+        <v>56</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="7">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="7">
+        <v>205</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="7">
+        <v>138</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="7">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="7">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" s="7">
+        <v>44</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="7">
+        <v>100</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" s="7">
+        <v>100</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H36" s="7">
+        <v>100</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J36" s="7">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55763124-A493-4F51-8D86-513A38850AA1}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90127DEF-6D96-40D6-B02F-02D0E7891C54}">
   <sheetPr>
@@ -3840,16 +5408,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="13" t="s">
         <v>224</v>
       </c>
@@ -3935,7 +5503,7 @@
       <c r="B2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3946,7 +5514,7 @@
       <c r="B3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3955,14 +5523,14 @@
       <c r="B4" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>249</v>
       </c>
       <c r="B5" s="32"/>
-      <c r="C5" s="38"/>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3971,7 +5539,7 @@
       <c r="B6" s="9">
         <v>1.37</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -3980,7 +5548,7 @@
       <c r="B7" s="9">
         <v>1.02</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4151,17 +5719,17 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="53" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="7" t="str">
@@ -4173,7 +5741,7 @@
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="7" t="str">
         <f>'1'!D10&amp;"÷"&amp;'1'!E10</f>
         <v>157÷158</v>
@@ -4183,7 +5751,7 @@
       <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="7" t="str">
         <f>'1'!D11&amp;"÷"&amp;'1'!E11</f>
         <v>181.5÷182</v>
@@ -4193,7 +5761,7 @@
       <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="7" t="str">
         <f>'1'!D12&amp;"÷"&amp;'1'!E12</f>
         <v>213÷214.5</v>
@@ -4203,7 +5771,7 @@
       <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="7" t="str">
         <f>'1'!D13&amp;"÷"&amp;'1'!E13</f>
         <v>228÷231</v>
@@ -4213,7 +5781,7 @@
       <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="7" t="str">
         <f>'1'!D14&amp;"÷"&amp;'1'!E14</f>
         <v>0.5÷1</v>
@@ -4223,7 +5791,7 @@
       <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="7">
         <f>'1'!E15</f>
         <v>0.5</v>
@@ -4321,7 +5889,7 @@
       <c r="B6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="61" t="str">
+      <c r="C6" s="38" t="str">
         <f>TEXT('1'!H20,"0.00")&amp;"÷"&amp;TEXT('1'!H21,"0.00")</f>
         <v>31.85÷57.32</v>
       </c>
@@ -4338,8 +5906,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,14 +6121,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4572,13 +6140,13 @@
       <c r="C3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="56" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4592,9 +6160,9 @@
       <c r="C4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -4606,9 +6174,9 @@
       <c r="C5" s="9">
         <v>37</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4620,19 +6188,19 @@
       <c r="C6" s="9">
         <v>0.86</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -4655,14 +6223,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -4687,14 +6255,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -4712,12 +6280,12 @@
       <c r="E12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="47" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="47" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -4726,35 +6294,35 @@
       <c r="C13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="9">
         <v>0.65</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -4778,14 +6346,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -4797,13 +6365,13 @@
       <c r="C18" s="9">
         <v>95</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4815,9 +6383,9 @@
       <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -4827,9 +6395,9 @@
       <c r="C20" s="9">
         <v>0.5</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -4839,9 +6407,9 @@
       <c r="C21" s="9">
         <v>0.1</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -4851,9 +6419,9 @@
       <c r="C22" s="9">
         <v>0.1</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -4863,9 +6431,9 @@
       <c r="C23" s="9">
         <v>0.1</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -4875,19 +6443,19 @@
       <c r="C24" s="9">
         <v>0.2</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -4911,14 +6479,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -4930,13 +6498,13 @@
       <c r="C28" s="9">
         <v>99.95</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="47" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4950,19 +6518,19 @@
       <c r="C29" s="9">
         <v>0.05</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -4975,13 +6543,13 @@
         <f>'1'!C79</f>
         <v>40</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="47" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4995,9 +6563,9 @@
       <c r="C32" s="9">
         <v>15</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -5009,9 +6577,9 @@
       <c r="C33" s="9">
         <v>50</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -5023,9 +6591,9 @@
       <c r="C34" s="9">
         <v>7</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -5037,9 +6605,9 @@
       <c r="C35" s="9">
         <v>4</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm\ksf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A4DC44-9B2A-4386-A185-9FD59B526A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29075258-3A34-4B95-90F6-B66FC0158A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="13" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="8.1" sheetId="6" r:id="rId10"/>
     <sheet name="8.2" sheetId="7" r:id="rId11"/>
     <sheet name="10.1" sheetId="18" r:id="rId12"/>
-    <sheet name="11" sheetId="19" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Тарелки">#REF!</definedName>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="387">
   <si>
     <t>Стадии, узлы, аппараты</t>
   </si>
@@ -1921,18 +1920,6 @@
     <t>20,148</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Мол. Масса</t>
   </si>
   <si>
@@ -1958,18 +1945,55 @@
   </si>
   <si>
     <t>Поток № 8</t>
+  </si>
+  <si>
+    <t>Поток № 9</t>
+  </si>
+  <si>
+    <t>Поток № 10</t>
+  </si>
+  <si>
+    <t>Поток № 11</t>
+  </si>
+  <si>
+    <t>Поток № 12</t>
+  </si>
+  <si>
+    <t>Поток № 13</t>
+  </si>
+  <si>
+    <t>Поток № 14</t>
+  </si>
+  <si>
+    <t>Поток № 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2198,196 +2222,208 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3340,10 +3376,10 @@
       <c r="B120" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="D120" s="41"/>
+      <c r="D120" s="40"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
@@ -3414,46 +3450,46 @@
       <c r="A128" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B128" s="43">
+      <c r="B128" s="42">
         <v>150</v>
       </c>
-      <c r="C128" s="44"/>
+      <c r="C128" s="43"/>
     </row>
     <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B129" s="43">
+      <c r="B129" s="42">
         <v>165</v>
       </c>
-      <c r="C129" s="44"/>
+      <c r="C129" s="43"/>
     </row>
     <row r="130" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="43">
+      <c r="B130" s="42">
         <v>195</v>
       </c>
-      <c r="C130" s="44"/>
+      <c r="C130" s="43"/>
     </row>
     <row r="131" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="43">
+      <c r="B131" s="42">
         <v>230</v>
       </c>
-      <c r="C131" s="44"/>
+      <c r="C131" s="43"/>
     </row>
     <row r="132" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="43">
+      <c r="B132" s="42">
         <v>250</v>
       </c>
-      <c r="C132" s="44"/>
+      <c r="C132" s="43"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
@@ -3598,10 +3634,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="B147" s="41">
+      <c r="B147" s="40">
         <v>3</v>
       </c>
       <c r="C147" s="26" t="s">
@@ -3609,8 +3645,8 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="42"/>
-      <c r="B148" s="41"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="40"/>
       <c r="C148" s="26" t="s">
         <v>284</v>
       </c>
@@ -3828,7 +3864,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3845,7 +3881,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3860,7 +3896,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3875,7 +3911,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +3926,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3905,7 +3941,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3920,7 +3956,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3935,7 +3971,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3952,7 +3988,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3967,7 +4003,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -4118,10 +4154,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4129,122 +4165,91 @@
     <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B2" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="69" t="s">
-        <v>378</v>
-      </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1" s="64"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64" t="s">
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="40" t="s">
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D4" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="7">
-        <v>150</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B5" s="7">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>333</v>
@@ -4253,10 +4258,10 @@
         <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>333</v>
@@ -4267,16 +4272,16 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B6" s="7">
-        <v>364</v>
+        <v>183</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>333</v>
@@ -4285,10 +4290,10 @@
         <v>333</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>333</v>
@@ -4299,466 +4304,466 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="7">
+        <v>364</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="7">
         <v>183</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="I9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>56</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="G12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>205</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>138</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="C14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B15" s="7">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="7">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="7" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>100</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>100</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>100</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="H19" s="64"/>
-      <c r="I19" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64" t="s">
+      <c r="B20" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64" t="s">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64" t="s">
+      <c r="F21" s="67"/>
+      <c r="G21" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64" t="s">
+      <c r="H21" s="67"/>
+      <c r="I21" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="40" t="s">
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D22" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F22" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H22" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J22" s="39" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" s="7">
-        <v>150</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B23" s="7">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>333</v>
@@ -4767,10 +4772,10 @@
         <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>333</v>
@@ -4781,10 +4786,10 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B24" s="7">
-        <v>364</v>
+        <v>183</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>333</v>
@@ -4813,578 +4818,1463 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" s="7">
+        <v>364</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="7">
         <v>183</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="C26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="7">
         <v>18</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="C27" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="7">
         <v>56</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="7">
         <v>18</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="C30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="7">
         <v>205</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="C31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B32" s="7">
         <v>138</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="C32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B33" s="7">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="7">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7">
         <v>16</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="C35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B36" s="7">
         <v>44</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="C36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="H38" s="67"/>
+      <c r="I38" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="J38" s="67"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" s="67"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="7">
+        <v>150</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="7">
+        <v>183</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" s="7">
         <v>364</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
+      <c r="C43" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" s="7">
+        <v>183</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="7">
+        <v>18</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="7">
+        <v>56</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" s="7">
+        <v>18</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="7">
+        <v>205</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" s="7">
+        <v>138</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="66"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" s="7">
+        <v>14</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" s="7">
+        <v>16</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" s="7">
+        <v>44</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" s="7">
-        <v>100</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F36" s="7">
-        <v>100</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H36" s="7">
-        <v>100</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="J36" s="7">
-        <v>100</v>
+      <c r="B55" s="66"/>
+      <c r="C55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="D56" s="67"/>
+      <c r="E56" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56" s="67"/>
+      <c r="G56" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="H56" s="67"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" s="67"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" s="7">
+        <v>150</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B60" s="7">
+        <v>183</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" s="7">
+        <v>364</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" s="7">
+        <v>183</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="7">
+        <v>18</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="7">
+        <v>56</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" s="7">
+        <v>18</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B67" s="7">
+        <v>205</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" s="7">
+        <v>138</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="66"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B70" s="7">
+        <v>14</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="7">
+        <v>16</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B72" s="7">
+        <v>44</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="B73" s="66"/>
+      <c r="C73" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
+  <mergeCells count="52">
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A15:J15"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55763124-A493-4F51-8D86-513A38850AA1}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" t="s">
-        <v>374</v>
-      </c>
-      <c r="E6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" t="s">
-        <v>371</v>
-      </c>
-      <c r="F8" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5408,16 +6298,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="13" t="s">
         <v>224</v>
       </c>
@@ -5503,7 +6393,7 @@
       <c r="B2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5514,7 +6404,7 @@
       <c r="B3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -5523,14 +6413,14 @@
       <c r="B4" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>249</v>
       </c>
       <c r="B5" s="32"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="47"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5539,7 +6429,7 @@
       <c r="B6" s="9">
         <v>1.37</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="47"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5548,7 +6438,7 @@
       <c r="B7" s="9">
         <v>1.02</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5719,17 +6609,17 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="7" t="str">
@@ -5741,7 +6631,7 @@
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="7" t="str">
         <f>'1'!D10&amp;"÷"&amp;'1'!E10</f>
         <v>157÷158</v>
@@ -5751,7 +6641,7 @@
       <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="7" t="str">
         <f>'1'!D11&amp;"÷"&amp;'1'!E11</f>
         <v>181.5÷182</v>
@@ -5761,7 +6651,7 @@
       <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="7" t="str">
         <f>'1'!D12&amp;"÷"&amp;'1'!E12</f>
         <v>213÷214.5</v>
@@ -5771,7 +6661,7 @@
       <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="7" t="str">
         <f>'1'!D13&amp;"÷"&amp;'1'!E13</f>
         <v>228÷231</v>
@@ -5781,7 +6671,7 @@
       <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="7" t="str">
         <f>'1'!D14&amp;"÷"&amp;'1'!E14</f>
         <v>0.5÷1</v>
@@ -5791,7 +6681,7 @@
       <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="7">
         <f>'1'!E15</f>
         <v>0.5</v>
@@ -6121,14 +7011,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6140,13 +7030,13 @@
       <c r="C3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="55" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6160,9 +7050,9 @@
       <c r="C4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -6174,9 +7064,9 @@
       <c r="C5" s="9">
         <v>37</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -6188,19 +7078,19 @@
       <c r="C6" s="9">
         <v>0.86</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -6223,14 +7113,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -6255,14 +7145,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -6280,12 +7170,12 @@
       <c r="E12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -6294,35 +7184,35 @@
       <c r="C13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="9">
         <v>0.65</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -6346,14 +7236,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -6365,13 +7255,13 @@
       <c r="C18" s="9">
         <v>95</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6383,9 +7273,9 @@
       <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -6395,9 +7285,9 @@
       <c r="C20" s="9">
         <v>0.5</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -6407,9 +7297,9 @@
       <c r="C21" s="9">
         <v>0.1</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -6419,9 +7309,9 @@
       <c r="C22" s="9">
         <v>0.1</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -6431,9 +7321,9 @@
       <c r="C23" s="9">
         <v>0.1</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -6443,19 +7333,19 @@
       <c r="C24" s="9">
         <v>0.2</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -6479,14 +7369,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -6498,13 +7388,13 @@
       <c r="C28" s="9">
         <v>99.95</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="46" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6518,19 +7408,19 @@
       <c r="C29" s="9">
         <v>0.05</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -6543,13 +7433,13 @@
         <f>'1'!C79</f>
         <v>40</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="46" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6563,9 +7453,9 @@
       <c r="C32" s="9">
         <v>15</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -6577,9 +7467,9 @@
       <c r="C33" s="9">
         <v>50</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -6591,9 +7481,9 @@
       <c r="C34" s="9">
         <v>7</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -6605,9 +7495,9 @@
       <c r="C35" s="9">
         <v>4</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm\ksf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29075258-3A34-4B95-90F6-B66FC0158A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39636E0-89A7-441D-AD44-01453208BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="13" r:id="rId1"/>
@@ -2368,9 +2368,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2378,6 +2375,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2404,13 +2404,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2422,7 +2422,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2936,7 +2936,7 @@
         <v>255</v>
       </c>
       <c r="H20" s="37">
-        <f>'1'!F20/'5.2'!C5</f>
+        <f>'1'!F20/'5.2'!C6</f>
         <v>31.847133757961782</v>
       </c>
       <c r="I20" s="14" t="s">
@@ -2958,7 +2958,7 @@
         <v>255</v>
       </c>
       <c r="H21" s="37">
-        <f>F21/'5.2'!C5</f>
+        <f>F21/'5.2'!C6</f>
         <v>57.324840764331213</v>
       </c>
       <c r="I21" s="14" t="s">
@@ -3831,10 +3831,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,181 +3846,181 @@
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="3" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>16.7</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5</v>
+        <v>16.7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>3.7100000000000001E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>2.5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4032,10 +4032,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,32 +4046,18 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4141,6 +4127,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,52 +4167,52 @@
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="67" t="s">
         <v>374</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="67" t="s">
         <v>375</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="J3" s="67"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="7" t="s">
         <v>255</v>
       </c>
@@ -4681,52 +4681,52 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="67" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68" t="s">
+      <c r="F20" s="68"/>
+      <c r="G20" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68" t="s">
+      <c r="H20" s="68"/>
+      <c r="I20" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="J20" s="67"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67" t="s">
+      <c r="H21" s="68"/>
+      <c r="I21" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>255</v>
       </c>
@@ -5198,49 +5198,49 @@
       <c r="A38" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="67" t="s">
         <v>371</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="73" t="s">
         <v>380</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="69" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="68"/>
+      <c r="G38" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="H38" s="67"/>
-      <c r="I38" s="69" t="s">
+      <c r="H38" s="68"/>
+      <c r="I38" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="J38" s="67"/>
+      <c r="J38" s="68"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="71"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67" t="s">
+      <c r="F39" s="68"/>
+      <c r="G39" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67" t="s">
+      <c r="H39" s="68"/>
+      <c r="I39" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="J39" s="67"/>
+      <c r="J39" s="68"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
-      <c r="B40" s="67"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="7" t="s">
         <v>255</v>
       </c>
@@ -5709,50 +5709,50 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="67" t="s">
         <v>371</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="69" t="s">
+      <c r="D56" s="68"/>
+      <c r="E56" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="F56" s="67"/>
-      <c r="G56" s="69" t="s">
+      <c r="F56" s="68"/>
+      <c r="G56" s="73" t="s">
         <v>386</v>
       </c>
-      <c r="H56" s="67"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="67"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="68"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67" t="s">
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67" t="s">
+      <c r="F57" s="68"/>
+      <c r="G57" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67" t="s">
-        <v>333</v>
-      </c>
-      <c r="J57" s="67"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" s="68"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="7" t="s">
         <v>255</v>
       </c>
@@ -6222,42 +6222,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
     <mergeCell ref="A64:J64"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A73:B73"/>
@@ -6274,6 +6238,42 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6284,10 +6284,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6297,61 +6297,61 @@
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B2" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="45"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>226</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>228</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6362,10 +6362,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,74 +6375,74 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C3" s="46" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="47"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="32"/>
       <c r="C5" s="47"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1.37</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B6" s="32"/>
       <c r="C6" s="47"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.37</v>
+      </c>
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="9">
         <v>1.02</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C8" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C3:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6454,10 +6454,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,43 +6466,43 @@
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B2" s="33" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B6" s="31" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6516,10 +6516,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6529,168 +6529,168 @@
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C4" s="7" t="str">
         <f>'1'!D17&amp;"÷"&amp;'1'!E17</f>
         <v>0.03166÷0.0325</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C6" s="7" t="str">
         <f>'1'!D18&amp;"÷"&amp;'1'!E18</f>
         <v>0.114÷0.116</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C10" s="7" t="str">
         <f>'1'!D9&amp;"÷"&amp;'1'!E9</f>
         <v>142÷143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="7" t="str">
+      <c r="B11" s="53"/>
+      <c r="C11" s="7" t="str">
         <f>'1'!D10&amp;"÷"&amp;'1'!E10</f>
         <v>157÷158</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="7" t="str">
+      <c r="B12" s="53"/>
+      <c r="C12" s="7" t="str">
         <f>'1'!D11&amp;"÷"&amp;'1'!E11</f>
         <v>181.5÷182</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="7" t="str">
+      <c r="B13" s="53"/>
+      <c r="C13" s="7" t="str">
         <f>'1'!D12&amp;"÷"&amp;'1'!E12</f>
         <v>213÷214.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="7" t="str">
+      <c r="B14" s="53"/>
+      <c r="C14" s="7" t="str">
         <f>'1'!D13&amp;"÷"&amp;'1'!E13</f>
         <v>228÷231</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="7" t="str">
+      <c r="B15" s="53"/>
+      <c r="C15" s="7" t="str">
         <f>'1'!D14&amp;"÷"&amp;'1'!E14</f>
         <v>0.5÷1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="7">
+      <c r="B16" s="54"/>
+      <c r="C16" s="7">
         <f>'1'!E15</f>
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6701,10 +6701,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6714,72 +6714,72 @@
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C3" s="9" t="str">
         <f>'1'!C29&amp;"÷"&amp;'1'!C26</f>
         <v>27÷40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C4" s="9" t="str">
         <f>'1'!C30&amp;"÷"&amp;'1'!C27</f>
         <v>0.7÷0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C5" s="9" t="str">
         <f>'1'!D20&amp;"÷"&amp;'1'!D21</f>
         <v>25÷45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9">
-        <v>785</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="38" t="str">
+      <c r="C7" s="38" t="str">
         <f>TEXT('1'!H20,"0.00")&amp;"÷"&amp;TEXT('1'!H21,"0.00")</f>
         <v>31.85÷57.32</v>
       </c>
@@ -6794,10 +6794,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,57 +6806,49 @@
     <col min="2" max="2" width="126.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -6864,17 +6856,25 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6888,10 +6888,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6900,67 +6900,67 @@
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6974,10 +6974,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6990,312 +6990,300 @@
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D4" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E4" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F4" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="9">
-        <v>37</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="9">
+        <v>37</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <v>0.86</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="9">
         <v>95</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-    </row>
-    <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="9">
         <v>84.5</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="11" t="str">
-        <f>E8</f>
+      <c r="E11" s="11" t="str">
+        <f>E9</f>
         <v>«ТК-ТОПАЗ», Московской обл., г. Старая Купавна, e-mail: tk-topaz @mail.ru</v>
       </c>
-      <c r="F10" s="11" t="str">
-        <f>F8</f>
+      <c r="F11" s="11" t="str">
+        <f>F9</f>
         <v>Поставляется в стальных или картонных барабанах с полиэтиленовыми вкладышами, хранится в упакованном виде в складских не отапливаемых помещениях.</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-    </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="9">
         <v>3</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F13" s="46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="14" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D14" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E14" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="47"/>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="9" t="s">
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="9">
         <v>0.65</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-    </row>
-    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="9">
         <v>46</v>
       </c>
-      <c r="D16" s="11" t="str">
-        <f>D13</f>
+      <c r="D17" s="11" t="str">
+        <f>D14</f>
         <v>СТО</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-    </row>
-    <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C19" s="9">
         <v>95</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D19" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E19" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F19" s="46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9">
+      <c r="B20" s="47"/>
+      <c r="C20" s="9">
         <v>2</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-    </row>
-    <row r="20" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9">
-        <v>0.5</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="B21" s="47"/>
       <c r="C21" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="47"/>
@@ -7303,9 +7291,9 @@
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="B22" s="47"/>
       <c r="C22" s="9">
         <v>0.1</v>
       </c>
@@ -7315,9 +7303,9 @@
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="B23" s="47"/>
       <c r="C23" s="9">
         <v>0.1</v>
       </c>
@@ -7325,207 +7313,220 @@
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" ht="50.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9">
+      <c r="B25" s="48"/>
+      <c r="C25" s="9">
         <v>0.2</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-    </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C27" s="9">
         <f>'1'!B122</f>
         <v>0.6</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="9">
-        <v>99.95</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>140</v>
-      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="9">
+        <v>99.95</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="9">
         <v>0.05</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-    </row>
-    <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <f>'1'!C79</f>
         <v>40</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D32" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E32" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F32" s="46" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="9">
-        <v>15</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C33" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
       <c r="F33" s="47"/>
     </row>
-    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="9">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D34" s="47"/>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="9">
+        <v>7</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="9">
         <v>4</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F12:F14"/>
+  <mergeCells count="26">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="F32:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
